--- a/Soft/Ajalogi/Recording LOG HUGO.xlsx
+++ b/Soft/Ajalogi/Recording LOG HUGO.xlsx
@@ -5,18 +5,32 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piret\Documents\Desktop\Hugo asjad\Proge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piret\Documents\Desktop\Hugo asjad\Abc\Soft\Ajalogi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77691D11-3EA9-49EE-BB50-8DC6F2B94252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50470923-C9A4-4767-9123-F37B9C2917F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="2" r:id="rId1"/>
     <sheet name="Nädal 2" sheetId="1" r:id="rId2"/>
     <sheet name="Nädal3" sheetId="18" r:id="rId3"/>
     <sheet name="Nädal4" sheetId="19" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="21" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="22" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="23" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="24" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="25" r:id="rId10"/>
+    <sheet name="Sheet7" sheetId="26" r:id="rId11"/>
+    <sheet name="Sheet8" sheetId="27" r:id="rId12"/>
+    <sheet name="Sheet9" sheetId="28" r:id="rId13"/>
+    <sheet name="Sheet10" sheetId="29" r:id="rId14"/>
+    <sheet name="Sheet11" sheetId="30" r:id="rId15"/>
+    <sheet name="Sheet12" sheetId="31" r:id="rId16"/>
+    <sheet name="Sheet13" sheetId="32" r:id="rId17"/>
+    <sheet name="Sheet14" sheetId="33" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -941,7 +955,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="K20" sqref="A2:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,6 +1364,2166 @@
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84D4C5E-D462-41E5-8274-BC218233B888}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48425012-FB0D-4B5B-A2B5-11F40FC8C815}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C4A2A6-88EA-4943-B81E-FE6C13CF3854}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83639C5-30B2-415E-AA8A-CFB4CDDF1EF1}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5016B1FE-491C-40F0-AC9E-736BCB2EFC41}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3686409-A0EC-4931-B4DF-94692B041C5A}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC114F2F-78C7-452A-ABCD-322915B7383F}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF418F91-F95B-45FA-B254-6FF274AE0CED}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC27FFA0-E346-419D-87C4-0B7C5E7242C3}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1993,7 +4167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AED1F7-B10A-4401-BC15-EAABA7573BEA}">
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2276,4 +4450,1211 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B30DC-B745-4EB4-B550-2917D3D6BCEF}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="A1:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91457264-8E9A-4936-B848-E16E4BDB5618}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601C4902-8E63-49B5-9405-6BED0FBA53E7}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC87D24-1C86-48A0-9222-E0BACFB97720}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7475D45E-BE26-47B3-9844-62F95137876A}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Soft/Ajalogi/Recording LOG HUGO.xlsx
+++ b/Soft/Ajalogi/Recording LOG HUGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piret\Documents\Desktop\Hugo asjad\Abc\Soft\Ajalogi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50470923-C9A4-4767-9123-F37B9C2917F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E22822-7C3F-40C3-B7FA-AAA5A8BAB926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="35">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -151,6 +151,9 @@
   <si>
     <t>error oli</t>
   </si>
+  <si>
+    <t>Nädal 5</t>
+  </si>
 </sst>
 </file>
 
@@ -506,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -561,6 +564,63 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -973,68 +1033,68 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="65">
         <v>43857</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1339,13 +1399,13 @@
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
         <v>1125</v>
@@ -1380,56 +1440,56 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -1584,11 +1644,11 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -1620,56 +1680,56 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -1824,11 +1884,11 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -1860,56 +1920,56 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2064,11 +2124,11 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -2100,56 +2160,56 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2304,11 +2364,11 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -2340,56 +2400,56 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2544,11 +2604,11 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -2580,56 +2640,56 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2784,11 +2844,11 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -2820,56 +2880,56 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -3024,11 +3084,11 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -3060,56 +3120,56 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -3264,11 +3324,11 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -3293,63 +3353,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC27FFA0-E346-419D-87C4-0B7C5E7242C3}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -3504,11 +3564,11 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -4456,14 +4516,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B30DC-B745-4EB4-B550-2917D3D6BCEF}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="A1:J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
+      <c r="A1" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -4487,12 +4552,18 @@
       <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
+      <c r="A3" s="43" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="C3" s="45" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
@@ -4511,169 +4582,301 @@
       <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
+      <c r="A5" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" s="52"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="16"/>
+      <c r="C5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="17">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18">
+        <v>43886</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="21">
+        <v>90</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7">
+        <v>43887</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.4861111111111111</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="5">
+        <v>220</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.8930555555555556</v>
+      </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="5">
+        <v>26</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>43889</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="5">
+        <v>120</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43890</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.53125</v>
+      </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="5">
+        <v>90</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="9">
+        <v>6</v>
+      </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="8">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.73749999999999993</v>
+      </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="8">
+        <v>127</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="A12" s="9">
+        <v>7</v>
+      </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.80069444444444438</v>
+      </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5">
+        <v>73</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="9">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7">
+        <v>43891</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.71875</v>
+      </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="5">
+        <v>153</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9">
+        <v>9</v>
+      </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="8">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="5">
+        <v>131</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="9">
+        <v>11</v>
+      </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
+      <c r="A17" s="23">
+        <v>12</v>
+      </c>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
+      <c r="A18" s="34" t="s">
+        <v>12</v>
+      </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="36"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="30">
+        <v>1030</v>
+      </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
@@ -4686,15 +4889,6 @@
       <c r="F19" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4710,56 +4904,56 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -4914,11 +5108,11 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -4950,56 +5144,56 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -5154,11 +5348,11 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -5190,56 +5384,56 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -5394,11 +5588,11 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -5430,56 +5624,56 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -5634,11 +5828,11 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>

--- a/Soft/Ajalogi/Recording LOG HUGO.xlsx
+++ b/Soft/Ajalogi/Recording LOG HUGO.xlsx
@@ -1,36 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piret\Documents\Desktop\Hugo asjad\Abc\Soft\Ajalogi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E22822-7C3F-40C3-B7FA-AAA5A8BAB926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE92A10-B2AA-4824-8366-4509A0808821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="2" r:id="rId1"/>
     <sheet name="Nädal 2" sheetId="1" r:id="rId2"/>
     <sheet name="Nädal3" sheetId="18" r:id="rId3"/>
     <sheet name="Nädal4" sheetId="19" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="21" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="22" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="23" r:id="rId8"/>
-    <sheet name="Sheet5" sheetId="24" r:id="rId9"/>
-    <sheet name="Sheet6" sheetId="25" r:id="rId10"/>
-    <sheet name="Sheet7" sheetId="26" r:id="rId11"/>
-    <sheet name="Sheet8" sheetId="27" r:id="rId12"/>
-    <sheet name="Sheet9" sheetId="28" r:id="rId13"/>
-    <sheet name="Sheet10" sheetId="29" r:id="rId14"/>
-    <sheet name="Sheet11" sheetId="30" r:id="rId15"/>
-    <sheet name="Sheet12" sheetId="31" r:id="rId16"/>
-    <sheet name="Sheet13" sheetId="32" r:id="rId17"/>
-    <sheet name="Sheet14" sheetId="33" r:id="rId18"/>
+    <sheet name="Nädal 5" sheetId="20" r:id="rId5"/>
+    <sheet name="Nädal 6" sheetId="21" r:id="rId6"/>
+    <sheet name="Nädal7" sheetId="23" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="24" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="25" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="26" r:id="rId10"/>
+    <sheet name="Sheet8" sheetId="27" r:id="rId11"/>
+    <sheet name="Sheet9" sheetId="28" r:id="rId12"/>
+    <sheet name="Sheet10" sheetId="29" r:id="rId13"/>
+    <sheet name="Sheet11" sheetId="30" r:id="rId14"/>
+    <sheet name="Sheet12" sheetId="31" r:id="rId15"/>
+    <sheet name="Sheet13" sheetId="32" r:id="rId16"/>
+    <sheet name="Sheet14" sheetId="33" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="36">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -154,6 +153,9 @@
   <si>
     <t>Nädal 5</t>
   </si>
+  <si>
+    <t>pratika</t>
+  </si>
 </sst>
 </file>
 
@@ -509,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -564,6 +566,63 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1018,83 +1077,83 @@
       <selection activeCell="K20" sqref="A2:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28.36328125" customWidth="1"/>
+    <col min="9" max="9" width="3.453125" customWidth="1"/>
+    <col min="10" max="10" width="3.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="84">
         <v>43857</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="69"/>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="70" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="71"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +1179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -1146,7 +1205,7 @@
       </c>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -1174,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1198,7 +1257,7 @@
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -1224,7 +1283,7 @@
       </c>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -1248,7 +1307,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -1262,7 +1321,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -1284,7 +1343,7 @@
       </c>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1310,7 +1369,7 @@
       </c>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -1334,7 +1393,7 @@
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -1360,7 +1419,7 @@
       </c>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -1384,7 +1443,7 @@
       </c>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -1398,14 +1457,14 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="53" t="s">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
         <v>1125</v>
@@ -1430,66 +1489,66 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84D4C5E-D462-41E5-8274-BC218233B888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48425012-FB0D-4B5B-A2B5-11F40FC8C815}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -1499,7 +1558,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -1511,7 +1570,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -1523,7 +1582,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -1535,7 +1594,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -1547,7 +1606,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -1559,7 +1618,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1571,7 +1630,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -1583,7 +1642,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -1595,7 +1654,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -1607,7 +1666,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -1619,7 +1678,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1631,7 +1690,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -1643,12 +1702,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -1670,66 +1729,66 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48425012-FB0D-4B5B-A2B5-11F40FC8C815}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C4A2A6-88EA-4943-B81E-FE6C13CF3854}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -1739,7 +1798,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -1751,7 +1810,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -1763,7 +1822,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -1775,7 +1834,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -1787,7 +1846,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -1799,7 +1858,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1811,7 +1870,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -1823,7 +1882,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -1835,7 +1894,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -1847,7 +1906,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -1859,7 +1918,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1871,7 +1930,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -1883,12 +1942,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -1910,66 +1969,66 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C4A2A6-88EA-4943-B81E-FE6C13CF3854}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83639C5-30B2-415E-AA8A-CFB4CDDF1EF1}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -1979,7 +2038,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -1991,7 +2050,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -2003,7 +2062,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -2015,7 +2074,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -2027,7 +2086,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -2039,7 +2098,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -2051,7 +2110,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -2063,7 +2122,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -2075,7 +2134,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -2087,7 +2146,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -2099,7 +2158,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -2111,7 +2170,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -2123,12 +2182,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -2150,66 +2209,66 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83639C5-30B2-415E-AA8A-CFB4CDDF1EF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5016B1FE-491C-40F0-AC9E-736BCB2EFC41}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2219,7 +2278,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -2231,7 +2290,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -2243,7 +2302,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -2255,7 +2314,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -2267,7 +2326,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -2279,7 +2338,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -2291,7 +2350,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -2303,7 +2362,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -2315,7 +2374,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -2327,7 +2386,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -2339,7 +2398,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -2351,7 +2410,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -2363,12 +2422,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -2390,66 +2449,66 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5016B1FE-491C-40F0-AC9E-736BCB2EFC41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3686409-A0EC-4931-B4DF-94692B041C5A}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2459,7 +2518,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -2471,7 +2530,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -2483,7 +2542,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -2495,7 +2554,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -2507,7 +2566,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -2519,7 +2578,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -2531,7 +2590,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -2543,7 +2602,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -2555,7 +2614,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -2567,7 +2626,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -2579,7 +2638,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -2591,7 +2650,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -2603,12 +2662,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -2630,66 +2689,66 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3686409-A0EC-4931-B4DF-94692B041C5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC114F2F-78C7-452A-ABCD-322915B7383F}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2699,7 +2758,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -2711,7 +2770,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -2723,7 +2782,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -2735,7 +2794,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -2747,7 +2806,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -2759,7 +2818,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -2771,7 +2830,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -2783,7 +2842,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -2795,7 +2854,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -2807,7 +2866,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -2819,7 +2878,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -2831,7 +2890,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -2843,12 +2902,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -2870,66 +2929,66 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC114F2F-78C7-452A-ABCD-322915B7383F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF418F91-F95B-45FA-B254-6FF274AE0CED}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2939,7 +2998,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -2951,7 +3010,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -2963,7 +3022,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -2975,7 +3034,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -2987,7 +3046,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -2999,7 +3058,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -3011,7 +3070,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -3023,7 +3082,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -3035,7 +3094,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -3047,7 +3106,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -3059,7 +3118,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -3071,7 +3130,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -3083,12 +3142,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -3110,66 +3169,66 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF418F91-F95B-45FA-B254-6FF274AE0CED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC27FFA0-E346-419D-87C4-0B7C5E7242C3}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J18"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -3179,7 +3238,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -3191,7 +3250,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -3203,7 +3262,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -3215,7 +3274,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -3227,7 +3286,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -3239,7 +3298,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -3251,7 +3310,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -3263,7 +3322,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -3275,7 +3334,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -3287,7 +3346,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -3299,7 +3358,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -3311,7 +3370,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -3323,252 +3382,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC27FFA0-E346-419D-87C4-0B7C5E7242C3}">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -3598,20 +3417,20 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28.36328125" customWidth="1"/>
+    <col min="9" max="9" width="3.453125" customWidth="1"/>
+    <col min="10" max="10" width="3.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3620,13 +3439,13 @@
       <c r="D1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3639,13 +3458,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3675,7 +3494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3698,7 +3517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3721,7 +3540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3742,7 +3561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3763,7 +3582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3786,7 +3605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3809,7 +3628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7</v>
       </c>
@@ -3830,7 +3649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>8</v>
       </c>
@@ -3853,7 +3672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9</v>
       </c>
@@ -3874,7 +3693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10</v>
       </c>
@@ -3885,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>11</v>
       </c>
@@ -3896,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12</v>
       </c>
@@ -3907,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3918,13 +3737,13 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -3944,17 +3763,17 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3965,7 +3784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3994,7 +3813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4017,7 +3836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4040,7 +3859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4063,7 +3882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4086,7 +3905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4109,7 +3928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4132,7 +3951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7</v>
       </c>
@@ -4155,7 +3974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>8</v>
       </c>
@@ -4178,7 +3997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9</v>
       </c>
@@ -4186,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10</v>
       </c>
@@ -4194,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>11</v>
       </c>
@@ -4202,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12</v>
       </c>
@@ -4210,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4231,18 +4050,18 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" customWidth="1"/>
+    <col min="1" max="9" width="10.453125" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4253,7 +4072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4282,7 +4101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4305,7 +4124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4328,7 +4147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3</v>
       </c>
@@ -4351,7 +4170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4</v>
       </c>
@@ -4371,7 +4190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5</v>
       </c>
@@ -4394,7 +4213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6</v>
       </c>
@@ -4420,7 +4239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>7</v>
       </c>
@@ -4440,7 +4259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>8</v>
       </c>
@@ -4463,7 +4282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>9</v>
       </c>
@@ -4471,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>10</v>
       </c>
@@ -4479,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>11</v>
       </c>
@@ -4487,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>12</v>
       </c>
@@ -4495,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4516,16 +4335,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B30DC-B745-4EB4-B550-2917D3D6BCEF}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
@@ -4539,7 +4358,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="39"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="40"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4551,7 +4370,7 @@
       <c r="I2" s="41"/>
       <c r="J2" s="42"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
@@ -4569,7 +4388,7 @@
       <c r="I3" s="46"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="48"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -4581,7 +4400,7 @@
       <c r="I4" s="49"/>
       <c r="J4" s="50"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="51" t="s">
         <v>3</v>
       </c>
@@ -4612,7 +4431,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -4636,7 +4455,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -4660,7 +4479,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -4682,7 +4501,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -4706,7 +4525,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -4730,7 +4549,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -4752,7 +4571,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -4772,7 +4591,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>8</v>
       </c>
@@ -4796,7 +4615,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>9</v>
       </c>
@@ -4818,7 +4637,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>10</v>
       </c>
@@ -4834,7 +4653,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>11</v>
       </c>
@@ -4850,7 +4669,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23">
         <v>12</v>
       </c>
@@ -4866,7 +4685,7 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="34" t="s">
         <v>12</v>
       </c>
@@ -4882,7 +4701,7 @@
       <c r="I18" s="28"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -4897,14 +4716,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91457264-8E9A-4936-B848-E16E4BDB5618}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -4915,7 +4739,7 @@
       <c r="I1" s="57"/>
       <c r="J1" s="58"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="59"/>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -4927,19 +4751,25 @@
       <c r="I2" s="60"/>
       <c r="J2" s="61"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="62" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
+      <c r="C3" s="64" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="64"/>
       <c r="E3" s="64"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
       <c r="I3" s="65"/>
       <c r="J3" s="66"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="67"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
@@ -4951,9 +4781,708 @@
       <c r="I4" s="68"/>
       <c r="J4" s="69"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="70" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" s="71"/>
+      <c r="C5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="17">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18">
+        <v>43893</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21">
+        <v>75</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7">
+        <v>43894</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5">
+        <v>210</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5">
+        <v>50</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>43896</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5">
+        <v>80</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43897</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5">
+        <v>70</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8">
+        <v>225</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7">
+        <v>43898</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5">
+        <v>105</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="23">
+        <v>12</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="30">
+        <v>815</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC87D24-1C86-48A0-9222-E0BACFB97720}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="17">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18">
+        <v>43900</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21">
+        <v>75</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8">
+        <v>0.6875</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5">
+        <v>90</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5">
+        <v>45</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>43901</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5">
+        <v>225</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8">
+        <v>0.80833333333333324</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5">
+        <v>46</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="23">
+        <v>12</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="30">
+        <v>481</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7475D45E-BE26-47B3-9844-62F95137876A}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -4963,7 +5492,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -4975,7 +5504,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -4987,7 +5516,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -4999,7 +5528,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -5011,7 +5540,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -5023,7 +5552,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -5035,7 +5564,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -5047,7 +5576,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -5059,7 +5588,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -5071,7 +5600,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -5083,7 +5612,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -5095,7 +5624,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -5107,492 +5636,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601C4902-8E63-49B5-9405-6BED0FBA53E7}">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC87D24-1C86-48A0-9222-E0BACFB97720}">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -5614,66 +5663,66 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7475D45E-BE26-47B3-9844-62F95137876A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84D4C5E-D462-41E5-8274-BC218233B888}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -5683,7 +5732,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -5695,7 +5744,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -5707,7 +5756,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -5719,7 +5768,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -5731,7 +5780,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -5743,7 +5792,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -5755,7 +5804,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -5767,7 +5816,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -5779,7 +5828,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -5791,7 +5840,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -5803,7 +5852,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -5815,7 +5864,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -5827,12 +5876,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>

--- a/Soft/Ajalogi/Recording LOG HUGO.xlsx
+++ b/Soft/Ajalogi/Recording LOG HUGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piret\Documents\Desktop\Hugo asjad\Abc\Soft\Ajalogi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE92A10-B2AA-4824-8366-4509A0808821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9638D11-628C-49D6-9CAF-9C093E7B7910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="36">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -4716,7 +4716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91457264-8E9A-4936-B848-E16E4BDB5618}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4781,7 +4781,7 @@
       <c r="I4" s="68"/>
       <c r="J4" s="69"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="70" t="s">
         <v>3</v>
       </c>
@@ -5080,8 +5080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC87D24-1C86-48A0-9222-E0BACFB97720}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5293,14 +5293,22 @@
       <c r="A11" s="9">
         <v>6</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="7">
+        <v>43902</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.49236111111111108</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
@@ -5310,13 +5318,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="8">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.75</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
@@ -5326,13 +5340,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.78125</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
@@ -5341,14 +5361,22 @@
       <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="7">
+        <v>43903</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.5625</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
@@ -5358,13 +5386,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="8">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.65486111111111112</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
@@ -5374,13 +5408,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="8">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
@@ -5390,13 +5430,19 @@
         <v>12</v>
       </c>
       <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="25">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.71250000000000002</v>
+      </c>
       <c r="E17" s="26"/>
       <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="26"/>
+        <v>156</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
@@ -5410,7 +5456,7 @@
       <c r="D18" s="54"/>
       <c r="E18" s="55"/>
       <c r="F18" s="30">
-        <v>481</v>
+        <v>1378</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>

--- a/Soft/Ajalogi/Recording LOG HUGO.xlsx
+++ b/Soft/Ajalogi/Recording LOG HUGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piret\Documents\Desktop\Hugo asjad\Abc\Soft\Ajalogi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9638D11-628C-49D6-9CAF-9C093E7B7910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ADA474-E762-4953-AC72-BEC0AF7409CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Nädal 5" sheetId="20" r:id="rId5"/>
     <sheet name="Nädal 6" sheetId="21" r:id="rId6"/>
     <sheet name="Nädal7" sheetId="23" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="24" r:id="rId8"/>
+    <sheet name="Nädal8" sheetId="24" r:id="rId8"/>
     <sheet name="Sheet6" sheetId="25" r:id="rId9"/>
     <sheet name="Sheet7" sheetId="26" r:id="rId10"/>
     <sheet name="Sheet8" sheetId="27" r:id="rId11"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="37">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -156,6 +156,9 @@
   <si>
     <t>pratika</t>
   </si>
+  <si>
+    <t>kanban</t>
+  </si>
 </sst>
 </file>
 
@@ -511,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -566,6 +569,63 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1077,83 +1137,83 @@
       <selection activeCell="K20" sqref="A2:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.36328125" customWidth="1"/>
-    <col min="9" max="9" width="3.453125" customWidth="1"/>
-    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+    <col min="1" max="1" width="3.3515625" customWidth="1"/>
+    <col min="2" max="2" width="11.05859375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.46875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.64453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.46875" customWidth="1"/>
+    <col min="6" max="6" width="6.46875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28.3515625" customWidth="1"/>
+    <col min="9" max="9" width="3.46875" customWidth="1"/>
+    <col min="10" max="10" width="3.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+    <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="77"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="81" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="99"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="84">
+      <c r="G4" s="103">
         <v>43857</v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="85"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="86"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88"/>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="89" t="s">
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="104"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="107"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="90"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1179,7 +1239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -1205,7 +1265,7 @@
       </c>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -1233,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1257,7 +1317,7 @@
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -1283,7 +1343,7 @@
       </c>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -1307,7 +1367,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -1321,7 +1381,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -1343,7 +1403,7 @@
       </c>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1369,7 +1429,7 @@
       </c>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -1393,7 +1453,7 @@
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -1419,7 +1479,7 @@
       </c>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -1443,7 +1503,7 @@
       </c>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -1457,14 +1517,14 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="72" t="s">
+    <row r="19" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
         <v>1125</v>
@@ -1496,59 +1556,59 @@
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -1558,7 +1618,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -1570,7 +1630,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -1582,7 +1642,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -1594,7 +1654,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -1606,7 +1666,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -1618,7 +1678,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1630,7 +1690,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -1642,7 +1702,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -1654,7 +1714,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -1666,7 +1726,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -1678,7 +1738,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1690,7 +1750,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -1702,12 +1762,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -1736,59 +1796,59 @@
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -1798,7 +1858,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -1810,7 +1870,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -1822,7 +1882,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -1834,7 +1894,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -1846,7 +1906,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -1858,7 +1918,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1870,7 +1930,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -1882,7 +1942,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -1894,7 +1954,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -1906,7 +1966,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -1918,7 +1978,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1930,7 +1990,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -1942,12 +2002,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -1976,59 +2036,59 @@
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2038,7 +2098,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -2050,7 +2110,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -2062,7 +2122,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -2074,7 +2134,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -2086,7 +2146,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -2098,7 +2158,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -2110,7 +2170,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -2122,7 +2182,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -2134,7 +2194,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -2146,7 +2206,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -2158,7 +2218,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -2170,7 +2230,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -2182,12 +2242,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -2216,59 +2276,59 @@
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2278,7 +2338,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -2290,7 +2350,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -2302,7 +2362,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -2314,7 +2374,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -2326,7 +2386,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -2338,7 +2398,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -2350,7 +2410,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -2362,7 +2422,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -2374,7 +2434,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -2386,7 +2446,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -2398,7 +2458,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -2410,7 +2470,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -2422,12 +2482,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -2456,59 +2516,59 @@
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2518,7 +2578,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -2530,7 +2590,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -2542,7 +2602,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -2554,7 +2614,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -2566,7 +2626,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -2578,7 +2638,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -2590,7 +2650,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -2602,7 +2662,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -2614,7 +2674,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -2626,7 +2686,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -2638,7 +2698,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -2650,7 +2710,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -2662,12 +2722,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -2696,59 +2756,59 @@
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2758,7 +2818,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -2770,7 +2830,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -2782,7 +2842,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -2794,7 +2854,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -2806,7 +2866,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -2818,7 +2878,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -2830,7 +2890,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -2842,7 +2902,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -2854,7 +2914,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -2866,7 +2926,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -2878,7 +2938,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -2890,7 +2950,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -2902,12 +2962,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -2936,59 +2996,59 @@
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2998,7 +3058,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -3010,7 +3070,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -3022,7 +3082,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -3034,7 +3094,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -3046,7 +3106,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -3058,7 +3118,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -3070,7 +3130,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -3082,7 +3142,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -3094,7 +3154,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -3106,7 +3166,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -3118,7 +3178,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -3130,7 +3190,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -3142,12 +3202,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -3176,59 +3236,59 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -3238,7 +3298,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -3250,7 +3310,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -3262,7 +3322,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -3274,7 +3334,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -3286,7 +3346,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -3298,7 +3358,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -3310,7 +3370,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -3322,7 +3382,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -3334,7 +3394,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -3346,7 +3406,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -3358,7 +3418,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -3370,7 +3430,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -3382,12 +3442,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -3417,20 +3477,20 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.36328125" customWidth="1"/>
-    <col min="9" max="9" width="3.453125" customWidth="1"/>
-    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+    <col min="1" max="1" width="3.3515625" customWidth="1"/>
+    <col min="2" max="2" width="11.05859375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.46875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.64453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.46875" customWidth="1"/>
+    <col min="6" max="6" width="6.46875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28.3515625" customWidth="1"/>
+    <col min="9" max="9" width="3.46875" customWidth="1"/>
+    <col min="10" max="10" width="3.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3439,13 +3499,13 @@
       <c r="D1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3458,13 +3518,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3494,7 +3554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3517,7 +3577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3540,7 +3600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3561,7 +3621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3582,7 +3642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3605,7 +3665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3628,7 +3688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>7</v>
       </c>
@@ -3649,7 +3709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>8</v>
       </c>
@@ -3672,7 +3732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>9</v>
       </c>
@@ -3693,7 +3753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>10</v>
       </c>
@@ -3704,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>11</v>
       </c>
@@ -3715,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>12</v>
       </c>
@@ -3726,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3737,13 +3797,13 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -3763,17 +3823,17 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="14.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3784,7 +3844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3813,7 +3873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3836,7 +3896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3859,7 +3919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3882,7 +3942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3905,7 +3965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3928,7 +3988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3951,7 +4011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>7</v>
       </c>
@@ -3974,7 +4034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>8</v>
       </c>
@@ -3997,7 +4057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>9</v>
       </c>
@@ -4005,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>10</v>
       </c>
@@ -4013,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>11</v>
       </c>
@@ -4021,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>12</v>
       </c>
@@ -4029,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4050,18 +4110,18 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="9" width="10.453125" customWidth="1"/>
-    <col min="10" max="11" width="11.453125" customWidth="1"/>
+    <col min="1" max="9" width="10.46875" customWidth="1"/>
+    <col min="10" max="11" width="11.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4072,7 +4132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4101,7 +4161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4124,7 +4184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4147,7 +4207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>3</v>
       </c>
@@ -4170,7 +4230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>4</v>
       </c>
@@ -4190,7 +4250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>5</v>
       </c>
@@ -4213,7 +4273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>6</v>
       </c>
@@ -4239,7 +4299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>7</v>
       </c>
@@ -4259,7 +4319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>8</v>
       </c>
@@ -4282,7 +4342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>9</v>
       </c>
@@ -4290,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>10</v>
       </c>
@@ -4298,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>11</v>
       </c>
@@ -4306,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>12</v>
       </c>
@@ -4314,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4339,12 +4399,12 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
@@ -4358,7 +4418,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="39"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" s="40"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4370,7 +4430,7 @@
       <c r="I2" s="41"/>
       <c r="J2" s="42"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
@@ -4388,7 +4448,7 @@
       <c r="I3" s="46"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="48"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -4400,7 +4460,7 @@
       <c r="I4" s="49"/>
       <c r="J4" s="50"/>
     </row>
-    <row r="5" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="51" t="s">
         <v>3</v>
       </c>
@@ -4431,7 +4491,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -4455,7 +4515,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -4479,7 +4539,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -4501,7 +4561,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -4525,7 +4585,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -4549,7 +4609,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -4571,7 +4631,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -4591,7 +4651,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13" s="9">
         <v>8</v>
       </c>
@@ -4615,7 +4675,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="9">
         <v>9</v>
       </c>
@@ -4637,7 +4697,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="9">
         <v>10</v>
       </c>
@@ -4653,7 +4713,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16" s="9">
         <v>11</v>
       </c>
@@ -4669,7 +4729,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23">
         <v>12</v>
       </c>
@@ -4685,7 +4745,7 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="34" t="s">
         <v>12</v>
       </c>
@@ -4701,7 +4761,7 @@
       <c r="I18" s="28"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -4720,12 +4780,12 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -4739,7 +4799,7 @@
       <c r="I1" s="57"/>
       <c r="J1" s="58"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="59"/>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -4751,7 +4811,7 @@
       <c r="I2" s="60"/>
       <c r="J2" s="61"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="62" t="s">
         <v>1</v>
       </c>
@@ -4769,7 +4829,7 @@
       <c r="I3" s="65"/>
       <c r="J3" s="66"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="67"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
@@ -4781,7 +4841,7 @@
       <c r="I4" s="68"/>
       <c r="J4" s="69"/>
     </row>
-    <row r="5" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="70" t="s">
         <v>3</v>
       </c>
@@ -4811,7 +4871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -4835,7 +4895,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -4859,7 +4919,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -4881,7 +4941,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -4905,7 +4965,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -4929,7 +4989,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -4951,7 +5011,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -4975,7 +5035,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="9">
         <v>8</v>
       </c>
@@ -4991,7 +5051,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="9">
         <v>9</v>
       </c>
@@ -5007,7 +5067,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="9">
         <v>10</v>
       </c>
@@ -5023,7 +5083,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="9">
         <v>11</v>
       </c>
@@ -5039,7 +5099,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23">
         <v>12</v>
       </c>
@@ -5055,7 +5115,7 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="53" t="s">
         <v>12</v>
       </c>
@@ -5080,16 +5140,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC87D24-1C86-48A0-9222-E0BACFB97720}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -5103,7 +5163,7 @@
       <c r="I1" s="57"/>
       <c r="J1" s="58"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="59"/>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -5115,7 +5175,7 @@
       <c r="I2" s="60"/>
       <c r="J2" s="61"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="62" t="s">
         <v>1</v>
       </c>
@@ -5133,7 +5193,7 @@
       <c r="I3" s="65"/>
       <c r="J3" s="66"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="67"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
@@ -5145,7 +5205,7 @@
       <c r="I4" s="68"/>
       <c r="J4" s="69"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="70" t="s">
         <v>3</v>
       </c>
@@ -5175,7 +5235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -5199,7 +5259,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -5221,7 +5281,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -5243,7 +5303,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -5267,7 +5327,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -5289,7 +5349,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -5313,7 +5373,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -5335,7 +5395,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="9">
         <v>8</v>
       </c>
@@ -5357,7 +5417,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="9">
         <v>9</v>
       </c>
@@ -5381,7 +5441,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="9">
         <v>10</v>
       </c>
@@ -5403,7 +5463,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="9">
         <v>11</v>
       </c>
@@ -5425,7 +5485,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23">
         <v>12</v>
       </c>
@@ -5447,7 +5507,7 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="53" t="s">
         <v>12</v>
       </c>
@@ -5472,14 +5532,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7475D45E-BE26-47B3-9844-62F95137876A}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="75"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
@@ -5490,7 +5552,7 @@
       <c r="I1" s="76"/>
       <c r="J1" s="77"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="78"/>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -5502,19 +5564,25 @@
       <c r="I2" s="79"/>
       <c r="J2" s="80"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
+    <row r="3" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="81" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
+      <c r="C3" s="83" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="83"/>
       <c r="E3" s="83"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="G3" s="84"/>
       <c r="H3" s="84"/>
       <c r="I3" s="84"/>
       <c r="J3" s="85"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="86"/>
       <c r="B4" s="87"/>
       <c r="C4" s="87"/>
@@ -5526,184 +5594,283 @@
       <c r="I4" s="87"/>
       <c r="J4" s="88"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="89"/>
+    <row r="5" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="89" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" s="90"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="C5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" s="17">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18">
+        <v>43911</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.90972222222222221</v>
+      </c>
       <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="21">
+        <v>250</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7">
+        <v>43912</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.54861111111111105</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="5">
+        <v>230</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="8">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.72222222222222221</v>
+      </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="5">
+        <v>248</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>43913</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="5">
+        <v>105</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43916</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="5">
+        <v>105</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" s="9">
+        <v>6</v>
+      </c>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A12" s="9">
+        <v>7</v>
+      </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13" s="9">
+        <v>8</v>
+      </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A14" s="9">
+        <v>9</v>
+      </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A16" s="9">
+        <v>11</v>
+      </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="23"/>
+    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="23">
+        <v>12</v>
+      </c>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="72" t="s">
+        <v>12</v>
+      </c>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
       <c r="D18" s="73"/>
       <c r="E18" s="74"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="30">
+        <v>938</v>
+      </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5716,59 +5883,59 @@
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -5778,7 +5945,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -5790,7 +5957,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -5802,7 +5969,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -5814,7 +5981,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -5826,7 +5993,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -5838,7 +6005,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -5850,7 +6017,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -5862,7 +6029,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -5874,7 +6041,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -5886,7 +6053,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -5898,7 +6065,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -5910,7 +6077,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -5922,12 +6089,12 @@
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
